--- a/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(チーム鵜澤)_1.0.0.xlsx
+++ b/TeamUzawa_Sharing_ProjectFile/Design/(PRGDE004)06_基本設計書_画面詳細(変更・追加分)(チーム鵜澤)_1.0.0.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="凡例" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="1.変更追加画面一覧" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="2-1-2-3 商品一覧画面（修正分）" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="2-1-2-3 商品一覧画面（非会員・一般）" sheetId="4" state="visible" r:id="rId6"/>
     <sheet name="5-2-1-2 注文詳細画面（一般）" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="5-2-1-3 注文詳細画面（運用管理者）" sheetId="6" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'1.変更追加画面一覧'!$A$1:$E$17</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-3 商品一覧画面（修正分）'!$A$1:$H$30</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'2-1-2-3 商品一覧画面（非会員・一般）'!$A$1:$H$30</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5-2-1-2 注文詳細画面（一般）'!$A$1:$H$30</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'5-2-1-3 注文詳細画面（運用管理者）'!$A$1:$H$30</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">表紙!$A$1:$D$18</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t xml:space="preserve">関係者外秘</t>
   </si>
@@ -149,12 +149,6 @@
     <t xml:space="preserve">運用管理者</t>
   </si>
   <si>
-    <t xml:space="preserve">追加機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">追加可能</t>
-  </si>
-  <si>
     <t xml:space="preserve">2-1-2-3 商品一覧画面</t>
   </si>
   <si>
@@ -173,51 +167,53 @@
     <t xml:space="preserve">１</t>
   </si>
   <si>
+    <t xml:space="preserve">テキスト欄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">入力された価格で検索可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">２</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボタン(submit) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スライダー機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">価格範囲で検索可能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2-1-2 注文詳細画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トラッキング機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配達状況確認機能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配達番号</t>
+  </si>
+  <si>
+    <t xml:space="preserve">運用管理者側で入力された番号（input）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-2-1-3 注文詳細画面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">管理者側で入力（input）
+配達番号が登録済みの場合は配達番号が表示される</t>
+  </si>
+  <si>
+    <t xml:space="preserve">配達状況 </t>
+  </si>
+  <si>
     <t xml:space="preserve">プルダウンメニュー </t>
-  </si>
-  <si>
-    <t xml:space="preserve">価格帯で検索可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ボタン(submit) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スライダー機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">価格範囲で検索可能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2-1-2 注文詳細画面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">トラッキング機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">発送状況確認機能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配達番号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">運用管理者側で入力された番号（input）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-2-1-3 注文詳細画面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理者側で入力（input）
-配達番号が登録済みの場合は配達番号が表示される
-（その場合テキストボックスとプルダウンは非表示になる）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">配達状況 </t>
   </si>
   <si>
     <t xml:space="preserve">３</t>
@@ -408,7 +404,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,14 +413,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB2B2B2"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,7 +582,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -770,10 +760,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,14 +767,6 @@
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -798,6 +776,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -809,7 +791,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -822,18 +804,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,12 +833,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFB2B2B2"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF558ED5"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDAEEF3"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -921,9 +891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1403640</xdr:colOff>
+      <xdr:colOff>1403280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -937,7 +907,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="739800" y="3695760"/>
-          <a:ext cx="2994120" cy="2870640"/>
+          <a:ext cx="2993760" cy="2870280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -958,9 +928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>622800</xdr:colOff>
+      <xdr:colOff>622440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -970,7 +940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2676240" y="3927240"/>
-          <a:ext cx="276840" cy="270720"/>
+          <a:ext cx="276480" cy="270360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1037,9 +1007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>234000</xdr:colOff>
+      <xdr:colOff>233640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1049,7 +1019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="743040" y="4105440"/>
-          <a:ext cx="278280" cy="279720"/>
+          <a:ext cx="277920" cy="279360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1116,9 +1086,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1128,7 +1098,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1063440" y="4552920"/>
-          <a:ext cx="275400" cy="261000"/>
+          <a:ext cx="275040" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1195,9 +1165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>780480</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1207,7 +1177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1590840" y="4789440"/>
-          <a:ext cx="281880" cy="259560"/>
+          <a:ext cx="281520" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1284,9 +1254,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1245240</xdr:colOff>
+      <xdr:colOff>1244880</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1296,7 +1266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3854160" y="3841920"/>
-          <a:ext cx="1442520" cy="280080"/>
+          <a:ext cx="1442160" cy="279720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1366,9 +1336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>348840</xdr:colOff>
+      <xdr:colOff>348480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1378,7 +1348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3321000" y="4518000"/>
-          <a:ext cx="1079280" cy="315000"/>
+          <a:ext cx="1078920" cy="314640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1447,9 +1417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1459,7 +1429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3247920" y="4554360"/>
-          <a:ext cx="1007280" cy="316800"/>
+          <a:ext cx="1006920" cy="316440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1528,9 +1498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>272520</xdr:colOff>
+      <xdr:colOff>272160</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1540,7 +1510,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3286080" y="4516200"/>
-          <a:ext cx="1037880" cy="300960"/>
+          <a:ext cx="1037520" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1609,9 +1579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1529640</xdr:colOff>
+      <xdr:colOff>1529280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1621,7 +1591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3244680" y="4346640"/>
-          <a:ext cx="2336400" cy="724320"/>
+          <a:ext cx="2336040" cy="723960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1735,9 +1705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1747,7 +1717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1216080" y="6937560"/>
-          <a:ext cx="5298120" cy="2696040"/>
+          <a:ext cx="5297760" cy="2695680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2158,9 +2128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>702360</xdr:colOff>
+      <xdr:colOff>702000</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>181080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2170,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1971720" y="2743200"/>
-          <a:ext cx="2782080" cy="295920"/>
+          <a:ext cx="2781720" cy="295560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2267,9 +2237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2283,7 +2253,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="666720" y="1300680"/>
-          <a:ext cx="6243480" cy="2493360"/>
+          <a:ext cx="6243120" cy="2493000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2378,9 +2348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>481680</xdr:colOff>
+      <xdr:colOff>481320</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2390,7 +2360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2462400" y="2682000"/>
-          <a:ext cx="289440" cy="272880"/>
+          <a:ext cx="289080" cy="272520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2479,9 +2449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2491,7 +2461,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2197800" y="2394360"/>
-          <a:ext cx="289440" cy="272880"/>
+          <a:ext cx="289080" cy="272520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2569,9 +2539,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>350280</xdr:colOff>
+      <xdr:colOff>349920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2581,7 +2551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1148400" y="2504160"/>
-          <a:ext cx="261000" cy="264600"/>
+          <a:ext cx="260640" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2648,9 +2618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>393480</xdr:colOff>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>212760</xdr:rowOff>
+      <xdr:rowOff>212400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2660,7 +2630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1191600" y="3059640"/>
-          <a:ext cx="261000" cy="264600"/>
+          <a:ext cx="260640" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2806,9 +2776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2529000</xdr:colOff>
+      <xdr:colOff>2528640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2822,7 +2792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1410480" y="1299960"/>
-          <a:ext cx="4741200" cy="2696760"/>
+          <a:ext cx="4740840" cy="2696400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2843,9 +2813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1539720</xdr:colOff>
+      <xdr:colOff>1539360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2855,7 +2825,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4872960" y="3772800"/>
-          <a:ext cx="289440" cy="272880"/>
+          <a:ext cx="289080" cy="272520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2933,9 +2903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>836640</xdr:colOff>
+      <xdr:colOff>836280</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2945,7 +2915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2845800" y="3305160"/>
-          <a:ext cx="261000" cy="264600"/>
+          <a:ext cx="260640" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3091,9 +3061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>3138120</xdr:colOff>
+      <xdr:colOff>3137760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3107,7 +3077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="861480" y="1228320"/>
-          <a:ext cx="5899320" cy="3007800"/>
+          <a:ext cx="5898960" cy="3007440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3128,9 +3098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3140,7 +3110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3341160" y="3080160"/>
-          <a:ext cx="284040" cy="272880"/>
+          <a:ext cx="283680" cy="272520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3218,9 +3188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1335960</xdr:colOff>
+      <xdr:colOff>1335600</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3230,7 +3200,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3345120" y="2793240"/>
-          <a:ext cx="261000" cy="264600"/>
+          <a:ext cx="260640" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3297,9 +3267,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1328400</xdr:colOff>
+      <xdr:colOff>1328040</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3309,7 +3279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4690080" y="3106440"/>
-          <a:ext cx="261000" cy="264600"/>
+          <a:ext cx="260640" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3376,9 +3346,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1444320</xdr:colOff>
+      <xdr:colOff>1443960</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3388,7 +3358,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4852440" y="2779200"/>
-          <a:ext cx="214560" cy="252000"/>
+          <a:ext cx="214200" cy="251640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -3399,6 +3369,126 @@
         <a:ln w="0">
           <a:solidFill>
             <a:srgbClr val="ffffff"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1737000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85320</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>199080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="画像 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:srcRect l="23439" t="41035" r="43398" b="46393"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359680" y="2292120"/>
+          <a:ext cx="1631160" cy="304200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1435320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3130560</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="シェイプ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16224600">
+          <a:off x="5732640" y="1961280"/>
+          <a:ext cx="344880" cy="1695240"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="841" h="854">
+              <a:moveTo>
+                <a:pt x="517" y="247"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="517" y="415"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="264" y="415"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="264" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="680"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="517" y="680"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="517" y="854"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="841" y="547"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="517" y="247"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3593,8 +3683,8 @@
   </sheetPr>
   <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4023,7 +4113,7 @@
   <dimension ref="A2:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4079,33 +4169,23 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-    </row>
-    <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
-        <v>39</v>
-      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4129,8 +4209,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4150,12 +4230,12 @@
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="49" t="s">
-        <v>41</v>
+      <c r="E2" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -4178,91 +4258,91 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="27" t="n">
+      <c r="C20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="28" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="E21" s="50" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="51" t="s">
+      <c r="F21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="52" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="E22" s="52" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="28" t="s">
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="51" t="s">
+      <c r="F23" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="56"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="56"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="57"/>
+      <c r="C34" s="55"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4286,8 +4366,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4307,12 +4387,12 @@
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="49" t="s">
-        <v>41</v>
+      <c r="E2" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -4335,81 +4415,65 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="50" t="n">
+      <c r="C20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="51" t="s">
+      <c r="D20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="58" t="s">
+      <c r="F21" s="51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="F21" s="59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="59"/>
-    </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="56"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="56"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="57"/>
+      <c r="C34" s="55"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -4433,8 +4497,8 @@
   </sheetPr>
   <dimension ref="A2:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A8" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75390625" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4454,12 +4518,12 @@
     <row r="2" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="49" t="s">
-        <v>41</v>
+      <c r="E2" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -4481,78 +4545,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="27" t="n">
+    <row r="20" customFormat="false" ht="27.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="47" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="30" t="s">
+      <c r="D20" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="47" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="54" t="s">
+    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="47" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="54" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="54"/>
+      <c r="E22" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
     </row>
     <row r="26" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
     </row>
     <row r="27" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
     </row>
     <row r="28" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="56"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="56"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="57"/>
+      <c r="C34" s="55"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
